--- a/astrolabe measurements.xlsx
+++ b/astrolabe measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5909A7D-042F-41AE-A999-61FA8AB18A05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDBCDC-063A-496A-B299-A7A53A3DCE90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7590" yWindow="3585" windowWidth="21600" windowHeight="11325" xr2:uid="{381156F2-6731-43CF-AA6F-A3F0C9A928A7}"/>
   </bookViews>
@@ -430,19 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8930-916D-4DB8-9D7B-B9FFCCAAC576}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -464,11 +464,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -491,12 +491,12 @@
         <f>(D2+E2+F2)/3</f>
         <v>29.333333333333332</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <f>SQRT((1/2)*(((D2-G2)^2)+((E2-G2)^2)+((F2-G2)^2)))</f>
         <v>3.0550504633038935</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -516,15 +516,15 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G57" si="0">(D3+E3+F3)/3</f>
+        <f t="shared" ref="G3:G51" si="0">(D3+E3+F3)/3</f>
         <v>40</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I35" si="1">SQRT((1/2)*(((D3-G3)^2)+((E3-G3)^2)+((F3-G3)^2)))</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H35" si="1">SQRT((1/2)*(((D3-G3)^2)+((E3-G3)^2)+((F3-G3)^2)))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -547,12 +547,12 @@
         <f t="shared" si="0"/>
         <v>27.666666666666668</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>2.5166114784235836</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -575,12 +575,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -603,12 +603,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -631,12 +631,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>2.6457513110645907</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -659,12 +659,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -687,12 +687,12 @@
         <f t="shared" si="0"/>
         <v>42.666666666666664</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>2.5166114784235831</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -715,12 +715,12 @@
         <f t="shared" si="0"/>
         <v>87.333333333333329</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>2.5166114784235836</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -743,12 +743,12 @@
         <f t="shared" si="0"/>
         <v>83.666666666666671</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>4.0414518843273806</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -771,12 +771,12 @@
         <f t="shared" si="0"/>
         <v>83.666666666666671</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>2.0816659994661331</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -799,12 +799,12 @@
         <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>2.8867513459481287</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -827,12 +827,12 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -855,12 +855,12 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -883,12 +883,12 @@
         <f t="shared" si="0"/>
         <v>62.666666666666664</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>3.0550504633038935</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -911,12 +911,12 @@
         <f t="shared" si="0"/>
         <v>30.333333333333332</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>0.57735026918962584</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -939,12 +939,12 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>6.2449979983983983</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -967,12 +967,12 @@
         <f t="shared" si="0"/>
         <v>34.333333333333336</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>4.0414518843273806</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -995,12 +995,12 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1023,12 +1023,12 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I21">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1051,12 +1051,12 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1076,12 +1076,12 @@
         <f t="shared" si="0"/>
         <v>30.666666666666668</v>
       </c>
-      <c r="I23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>26.633312473917574</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1104,12 +1104,12 @@
         <f t="shared" si="0"/>
         <v>26.666666666666668</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>3.0550504633038935</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1132,12 +1132,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>5.2915026221291814</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1160,12 +1160,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="I26">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>5.2915026221291814</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1188,12 +1188,12 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="I27">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>5.2915026221291814</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1216,12 +1216,12 @@
         <f t="shared" si="0"/>
         <v>28.333333333333332</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>3.5118845842842465</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1244,12 +1244,12 @@
         <f t="shared" si="0"/>
         <v>76.333333333333329</v>
       </c>
-      <c r="I29">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>4.0414518843273806</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1272,12 +1272,12 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I30">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1300,12 +1300,12 @@
         <f t="shared" si="0"/>
         <v>47.666666666666664</v>
       </c>
-      <c r="I31">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>2.5166114784235831</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1328,12 +1328,12 @@
         <f t="shared" si="0"/>
         <v>71.666666666666671</v>
       </c>
-      <c r="I32">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>1.5275252316519468</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1356,12 +1356,12 @@
         <f t="shared" si="0"/>
         <v>39.666666666666664</v>
       </c>
-      <c r="I33">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>1.5275252316519465</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1384,12 +1384,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I34">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1412,12 +1412,12 @@
         <f t="shared" si="0"/>
         <v>47.666666666666664</v>
       </c>
-      <c r="I35">
+      <c r="H35">
         <f>SQRT((1/2)*(((D35-G35)^2)+((E35-G35)^2)+((F35-G35)^2)))</f>
         <v>2.5166114784235831</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1440,12 +1440,12 @@
         <f t="shared" si="0"/>
         <v>80.666666666666671</v>
       </c>
-      <c r="I36">
-        <f t="shared" ref="I36:I57" si="2">SQRT((1/2)*(((D36-G36)^2)+((E36-G36)^2)+((F36-G36)^2)))</f>
+      <c r="H36">
+        <f>SQRT((1/2)*(((D36-G36)^2)+((E36-G36)^2)+((F36-G36)^2)))</f>
         <v>3.0550504633038931</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1468,12 +1468,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
+      <c r="H37">
+        <f>SQRT((1/2)*(((D37-G37)^2)+((E37-G37)^2)+((F37-G37)^2)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1496,12 +1496,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="2"/>
+      <c r="H38">
+        <f>SQRT((1/2)*(((D38-G38)^2)+((E38-G38)^2)+((F38-G38)^2)))</f>
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1524,12 +1524,12 @@
         <f t="shared" si="0"/>
         <v>43.666666666666664</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="2"/>
+      <c r="H39">
+        <f>SQRT((1/2)*(((D39-G39)^2)+((E39-G39)^2)+((F39-G39)^2)))</f>
         <v>5.5075705472861021</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1552,12 +1552,12 @@
         <f t="shared" si="0"/>
         <v>67.333333333333329</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="2"/>
+      <c r="H40">
+        <f>SQRT((1/2)*(((D40-G40)^2)+((E40-G40)^2)+((F40-G40)^2)))</f>
         <v>2.3094010767585034</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1580,12 +1580,12 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="2"/>
+      <c r="H41">
+        <f>SQRT((1/2)*(((D41-G41)^2)+((E41-G41)^2)+((F41-G41)^2)))</f>
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1608,12 +1608,12 @@
         <f t="shared" si="0"/>
         <v>38.333333333333336</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="2"/>
+      <c r="H42">
+        <f>SQRT((1/2)*(((D42-G42)^2)+((E42-G42)^2)+((F42-G42)^2)))</f>
         <v>2.8867513459481287</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1636,12 +1636,12 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="2"/>
+      <c r="H43">
+        <f>SQRT((1/2)*(((D43-G43)^2)+((E43-G43)^2)+((F43-G43)^2)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1664,12 +1664,12 @@
         <f t="shared" si="0"/>
         <v>24.666666666666668</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
+      <c r="H44">
+        <f>SQRT((1/2)*(((D44-G44)^2)+((E44-G44)^2)+((F44-G44)^2)))</f>
         <v>3.0550504633038935</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1692,12 +1692,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="2"/>
+      <c r="H45">
+        <f>SQRT((1/2)*(((D45-G45)^2)+((E45-G45)^2)+((F45-G45)^2)))</f>
         <v>4.358898943540674</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1720,12 +1720,12 @@
         <f t="shared" si="0"/>
         <v>26.666666666666668</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="2"/>
+      <c r="H46">
+        <f>SQRT((1/2)*(((D46-G46)^2)+((E46-G46)^2)+((F46-G46)^2)))</f>
         <v>4.1633319989322661</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1748,12 +1748,12 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="2"/>
+      <c r="H47">
+        <f>SQRT((1/2)*(((D47-G47)^2)+((E47-G47)^2)+((F47-G47)^2)))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1776,12 +1776,12 @@
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="2"/>
+      <c r="H48">
+        <f>SQRT((1/2)*(((D48-G48)^2)+((E48-G48)^2)+((F48-G48)^2)))</f>
         <v>4.1633319989322652</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1804,12 +1804,12 @@
         <f t="shared" si="0"/>
         <v>43.666666666666664</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="2"/>
+      <c r="H49">
+        <f>SQRT((1/2)*(((D49-G49)^2)+((E49-G49)^2)+((F49-G49)^2)))</f>
         <v>1.5275252316519465</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1832,12 +1832,12 @@
         <f t="shared" si="0"/>
         <v>81.666666666666671</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="2"/>
+      <c r="H50">
+        <f>SQRT((1/2)*(((D50-G50)^2)+((E50-G50)^2)+((F50-G50)^2)))</f>
         <v>1.5275252316519468</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1860,69 +1860,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="2"/>
+      <c r="H51">
+        <f>SQRT((1/2)*(((D51-G51)^2)+((E51-G51)^2)+((F51-G51)^2)))</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/astrolabe measurements.xlsx
+++ b/astrolabe measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDBCDC-063A-496A-B299-A7A53A3DCE90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91C9547-F29E-4DB5-882F-1BB43EB65DD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="3585" windowWidth="21600" windowHeight="11325" xr2:uid="{381156F2-6731-43CF-AA6F-A3F0C9A928A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{381156F2-6731-43CF-AA6F-A3F0C9A928A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
-  <si>
-    <t>Time</t>
-  </si>
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +74,9 @@
   <si>
     <t>Venus</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -111,11 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,48 +430,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8930-916D-4DB8-9D7B-B9FFCCAAC576}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.79166666666666663</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>43846</v>
@@ -498,10 +496,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.79166666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>43846</v>
@@ -526,10 +524,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.85416666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>8.5</v>
       </c>
       <c r="C4" s="1">
         <v>43846</v>
@@ -554,10 +552,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.89583333333333337</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9.25</v>
       </c>
       <c r="C5" s="1">
         <v>43846</v>
@@ -582,10 +580,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.79166666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>43846</v>
@@ -610,10 +608,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.85416666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>8.5</v>
       </c>
       <c r="C7" s="1">
         <v>43846</v>
@@ -638,10 +636,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.79166666666666663</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>43846</v>
@@ -666,10 +664,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.85416666666666663</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8.5</v>
       </c>
       <c r="C9" s="1">
         <v>43846</v>
@@ -694,10 +692,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.79166666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -722,10 +720,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.85416666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>8.5</v>
       </c>
       <c r="C11" s="1">
         <v>43846</v>
@@ -750,10 +748,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.79166666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>43846</v>
@@ -778,10 +776,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.85416666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8.5</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -806,10 +804,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.79166666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>17</v>
@@ -834,10 +832,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.79166666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>17</v>
@@ -862,10 +860,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.79166666666666663</v>
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>17</v>
@@ -890,10 +888,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.79166666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>17</v>
@@ -918,10 +916,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.79166666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -946,10 +944,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.79166666666666663</v>
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -974,10 +972,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.84375</v>
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>8.25</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
@@ -1002,10 +1000,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.84375</v>
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>8.25</v>
       </c>
       <c r="C21" s="1">
         <v>17</v>
@@ -1030,10 +1028,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.84375</v>
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>8.25</v>
       </c>
       <c r="C22" s="1">
         <v>17</v>
@@ -1058,10 +1056,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.84375</v>
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>8.25</v>
       </c>
       <c r="C23" s="1">
         <v>17</v>
@@ -1083,10 +1081,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.84375</v>
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>8.25</v>
       </c>
       <c r="C24" s="1">
         <v>17</v>
@@ -1111,10 +1109,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.84375</v>
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>8.25</v>
       </c>
       <c r="C25" s="1">
         <v>17</v>
@@ -1139,10 +1137,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.875</v>
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
       </c>
       <c r="C26" s="1">
         <v>17</v>
@@ -1167,10 +1165,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.875</v>
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>17</v>
@@ -1195,10 +1193,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
         <v>9</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.875</v>
       </c>
       <c r="C28" s="1">
         <v>17</v>
@@ -1223,10 +1221,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.875</v>
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>17</v>
@@ -1251,10 +1249,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.875</v>
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>17</v>
@@ -1279,10 +1277,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.875</v>
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>17</v>
@@ -1307,10 +1305,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.79166666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
       </c>
       <c r="C32" s="1">
         <v>22</v>
@@ -1335,10 +1333,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.79166666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>22</v>
@@ -1363,10 +1361,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.79166666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
       </c>
       <c r="C34" s="1">
         <v>22</v>
@@ -1391,10 +1389,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.79166666666666663</v>
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>22</v>
@@ -1419,10 +1417,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.79166666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>22</v>
@@ -1447,10 +1445,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.79166666666666663</v>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>22</v>
@@ -1475,10 +1473,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.79166666666666663</v>
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
       </c>
       <c r="C38" s="1">
         <v>22</v>
@@ -1503,10 +1501,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.85416666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>8.5</v>
       </c>
       <c r="C39" s="1">
         <v>22</v>
@@ -1531,10 +1529,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.85416666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>8.5</v>
       </c>
       <c r="C40" s="1">
         <v>22</v>
@@ -1559,10 +1557,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.85416666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>8.5</v>
       </c>
       <c r="C41" s="1">
         <v>22</v>
@@ -1587,10 +1585,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.85416666666666663</v>
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>8.5</v>
       </c>
       <c r="C42" s="1">
         <v>22</v>
@@ -1615,10 +1613,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.85416666666666663</v>
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>8.5</v>
       </c>
       <c r="C43" s="1">
         <v>22</v>
@@ -1643,10 +1641,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.85416666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>8.5</v>
       </c>
       <c r="C44" s="1">
         <v>22</v>
@@ -1671,10 +1669,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.79166666666666663</v>
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>29</v>
@@ -1699,10 +1697,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.79166666666666663</v>
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>29</v>
@@ -1727,10 +1725,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.79166666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>29</v>
@@ -1755,10 +1753,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.79166666666666663</v>
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
       </c>
       <c r="C48" s="1">
         <v>29</v>
@@ -1783,10 +1781,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0.79166666666666663</v>
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <v>29</v>
@@ -1811,10 +1809,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.79166666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
       </c>
       <c r="C50" s="1">
         <v>29</v>
@@ -1839,10 +1837,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.79166666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
       </c>
       <c r="C51" s="1">
         <v>29</v>

--- a/astrolabe measurements.xlsx
+++ b/astrolabe measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91C9547-F29E-4DB5-882F-1BB43EB65DD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027339AF-F68D-4067-B7D1-A91C5D5ED501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{381156F2-6731-43CF-AA6F-A3F0C9A928A7}"/>
   </bookViews>
@@ -111,9 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,13 +429,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D8930-916D-4DB8-9D7B-B9FFCCAAC576}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,8 +474,8 @@
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>43846</v>
+      <c r="C2">
+        <v>16</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -501,8 +502,8 @@
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>43846</v>
+      <c r="C3">
+        <v>16</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -529,8 +530,8 @@
       <c r="B4">
         <v>8.5</v>
       </c>
-      <c r="C4" s="1">
-        <v>43846</v>
+      <c r="C4">
+        <v>16</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -557,8 +558,8 @@
       <c r="B5">
         <v>9.25</v>
       </c>
-      <c r="C5" s="1">
-        <v>43846</v>
+      <c r="C5">
+        <v>16</v>
       </c>
       <c r="D5">
         <v>28</v>
@@ -585,8 +586,8 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>43846</v>
+      <c r="C6">
+        <v>16</v>
       </c>
       <c r="D6">
         <v>62</v>
@@ -613,8 +614,8 @@
       <c r="B7">
         <v>8.5</v>
       </c>
-      <c r="C7" s="1">
-        <v>43846</v>
+      <c r="C7">
+        <v>16</v>
       </c>
       <c r="D7">
         <v>65</v>
@@ -641,8 +642,8 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>43846</v>
+      <c r="C8">
+        <v>16</v>
       </c>
       <c r="D8">
         <v>45</v>
@@ -669,8 +670,8 @@
       <c r="B9">
         <v>8.5</v>
       </c>
-      <c r="C9" s="1">
-        <v>43846</v>
+      <c r="C9">
+        <v>16</v>
       </c>
       <c r="D9">
         <v>40</v>
@@ -697,7 +698,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>16</v>
       </c>
       <c r="D10">
@@ -725,8 +726,8 @@
       <c r="B11">
         <v>8.5</v>
       </c>
-      <c r="C11" s="1">
-        <v>43846</v>
+      <c r="C11">
+        <v>16</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -753,8 +754,8 @@
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>43846</v>
+      <c r="C12">
+        <v>16</v>
       </c>
       <c r="D12">
         <v>86</v>
@@ -781,7 +782,7 @@
       <c r="B13">
         <v>8.5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>16</v>
       </c>
       <c r="D13">
@@ -809,7 +810,7 @@
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>17</v>
       </c>
       <c r="D14">
@@ -837,7 +838,7 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
@@ -865,7 +866,7 @@
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>17</v>
       </c>
       <c r="D16">
@@ -893,7 +894,7 @@
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>17</v>
       </c>
       <c r="D17">
@@ -921,7 +922,7 @@
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
@@ -949,7 +950,7 @@
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
@@ -977,7 +978,7 @@
       <c r="B20">
         <v>8.25</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>17</v>
       </c>
       <c r="D20">
@@ -1005,7 +1006,7 @@
       <c r="B21">
         <v>8.25</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
@@ -1033,7 +1034,7 @@
       <c r="B22">
         <v>8.25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>17</v>
       </c>
       <c r="D22">
@@ -1061,7 +1062,7 @@
       <c r="B23">
         <v>8.25</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>17</v>
       </c>
       <c r="D23">
@@ -1070,13 +1071,16 @@
       <c r="E23">
         <v>48</v>
       </c>
+      <c r="F23">
+        <v>48</v>
+      </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>30.666666666666668</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>26.633312473917574</v>
+        <v>2.3094010767585029</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,7 +1090,7 @@
       <c r="B24">
         <v>8.25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>17</v>
       </c>
       <c r="D24">
@@ -1114,7 +1118,7 @@
       <c r="B25">
         <v>8.25</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>17</v>
       </c>
       <c r="D25">
@@ -1142,7 +1146,7 @@
       <c r="B26">
         <v>9</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>17</v>
       </c>
       <c r="D26">
@@ -1170,7 +1174,7 @@
       <c r="B27">
         <v>9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>17</v>
       </c>
       <c r="D27">
@@ -1198,7 +1202,7 @@
       <c r="B28">
         <v>9</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>17</v>
       </c>
       <c r="D28">
@@ -1226,7 +1230,7 @@
       <c r="B29">
         <v>9</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>17</v>
       </c>
       <c r="D29">
@@ -1254,7 +1258,7 @@
       <c r="B30">
         <v>9</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>17</v>
       </c>
       <c r="D30">
@@ -1282,7 +1286,7 @@
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>17</v>
       </c>
       <c r="D31">
@@ -1310,7 +1314,7 @@
       <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>22</v>
       </c>
       <c r="D32">
@@ -1338,7 +1342,7 @@
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>22</v>
       </c>
       <c r="D33">
@@ -1366,7 +1370,7 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>22</v>
       </c>
       <c r="D34">
@@ -1394,7 +1398,7 @@
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>22</v>
       </c>
       <c r="D35">
@@ -1422,7 +1426,7 @@
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>22</v>
       </c>
       <c r="D36">
@@ -1450,7 +1454,7 @@
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>22</v>
       </c>
       <c r="D37">
@@ -1478,7 +1482,7 @@
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>22</v>
       </c>
       <c r="D38">
@@ -1506,7 +1510,7 @@
       <c r="B39">
         <v>8.5</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>22</v>
       </c>
       <c r="D39">
@@ -1534,7 +1538,7 @@
       <c r="B40">
         <v>8.5</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>22</v>
       </c>
       <c r="D40">
@@ -1562,7 +1566,7 @@
       <c r="B41">
         <v>8.5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>22</v>
       </c>
       <c r="D41">
@@ -1590,7 +1594,7 @@
       <c r="B42">
         <v>8.5</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>22</v>
       </c>
       <c r="D42">
@@ -1618,7 +1622,7 @@
       <c r="B43">
         <v>8.5</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>22</v>
       </c>
       <c r="D43">
@@ -1646,7 +1650,7 @@
       <c r="B44">
         <v>8.5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>22</v>
       </c>
       <c r="D44">
@@ -1674,7 +1678,7 @@
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>29</v>
       </c>
       <c r="D45">
@@ -1702,7 +1706,7 @@
       <c r="B46">
         <v>7</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>29</v>
       </c>
       <c r="D46">
@@ -1730,7 +1734,7 @@
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>29</v>
       </c>
       <c r="D47">
@@ -1758,7 +1762,7 @@
       <c r="B48">
         <v>7</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>29</v>
       </c>
       <c r="D48">
@@ -1786,7 +1790,7 @@
       <c r="B49">
         <v>7</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>29</v>
       </c>
       <c r="D49">
@@ -1814,7 +1818,7 @@
       <c r="B50">
         <v>7</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>29</v>
       </c>
       <c r="D50">
@@ -1842,7 +1846,7 @@
       <c r="B51">
         <v>7</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>29</v>
       </c>
       <c r="D51">
